--- a/BC4400F22/Lecture2/Homework_0_Suggested_Solutions_Workbook.xlsx
+++ b/BC4400F22/Lecture2/Homework_0_Suggested_Solutions_Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400/Lecture2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuny547-my.sharepoint.com/personal/dailoae_gradcenter_cuny_edu/Documents/Documents/Work/Teaching/_BK_College/_Fall 2022/HW0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{2971C846-7071-4EC7-AA96-59969A8B6580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C2FA03-12C0-4F18-A490-8DD6B5FF533D}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{2971C846-7071-4EC7-AA96-59969A8B6580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B41DD2A2-7456-45F7-A6FF-F8027846745C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{53A7908B-9D74-4EB3-936A-B59CD547BAB7}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{53A7908B-9D74-4EB3-936A-B59CD547BAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="4" r:id="rId1"/>
@@ -4005,8 +4005,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9953625" y="3609975"/>
-              <a:ext cx="5048251" cy="2688294"/>
+              <a:off x="10608129" y="3512004"/>
+              <a:ext cx="5396593" cy="2606651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4088,8 +4088,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12471027" y="5054972"/>
-              <a:ext cx="5070662" cy="2688294"/>
+              <a:off x="13956927" y="4918901"/>
+              <a:ext cx="5429891" cy="2612094"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4501,19 +4501,19 @@
   </sheetPr>
   <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3828125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>39</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="3">
         <v>17</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="3">
         <v>18</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C29" s="17"/>
     </row>
   </sheetData>
@@ -4966,20 +4966,20 @@
   </sheetPr>
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="27"/>
+    <col min="14" max="14" width="9.15234375" style="27"/>
     <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="24" max="25" width="12.5703125" customWidth="1"/>
+    <col min="24" max="25" width="12.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>7892</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>9904</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9221</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>9257</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>7442</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>8116</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>9817</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7514</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9832</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9369</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9195</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>8187</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>8084</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>9185</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>8205</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>7249</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>9510</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>8965</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>9128</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>7976</v>
       </c>
@@ -6474,9 +6474,9 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>42</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>70</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>75</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>80</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>85</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>90</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>95</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>100</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
@@ -6565,12 +6565,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>7892</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>9904</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9221</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>9257</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>7442</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>8116</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>9817</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7514</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9832</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9369</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9195</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>8187</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>8084</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>9185</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>8205</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>7249</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>9510</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>8965</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>9128</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>7976</v>
       </c>
@@ -6751,9 +6751,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>0</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>65</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>70</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>75</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>85</v>
       </c>
@@ -6804,9 +6804,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0.15</v>
       </c>
